--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -6,20 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="new sheet2" r:id="rId3" sheetId="1"/>
+    <sheet name="new sheet" r:id="rId3" sheetId="1"/>
     <sheet name="second sheet" r:id="rId4" sheetId="2"/>
     <sheet name=" O'Brien's sales   " r:id="rId5" sheetId="3"/>
-    <sheet name="new sheet" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>This is a string</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,31 +89,4 @@
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>